--- a/res/facturas-s2.xlsx
+++ b/res/facturas-s2.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="Rcf7e8e82ab9646b3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="Ra60a57eeec8848b3"/>
   </sheets>
 </workbook>
 </file>

--- a/res/facturas-s2.xlsx
+++ b/res/facturas-s2.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="Ra60a57eeec8848b3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="R893dcfd4b0cd4f51"/>
   </sheets>
 </workbook>
 </file>

--- a/res/facturas-s2.xlsx
+++ b/res/facturas-s2.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="R893dcfd4b0cd4f51"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="R46b7ed00ffad4d87"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Grupo: </t>
   </si>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Tipo: </t>
   </si>
   <si>
-    <t>Fecha Desde: 01/01/2025</t>
+    <t>Fecha Desde: 01/06/2025</t>
   </si>
   <si>
     <t>Fecha Hasta: 31/12/2025</t>
@@ -234,45 +234,6 @@
   <si>
     <t>VIGNALE CARLOS MARCELO</t>
   </si>
-  <si>
-    <t>GRUPO INTEGRAL DE SALUD LOS CARDALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWELL BACK  S.A.</t>
-  </si>
-  <si>
-    <t>3244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP  INTEGRAL  COMMERCE   S.A.</t>
-  </si>
-  <si>
-    <t>ALMATEX S.A.</t>
-  </si>
-  <si>
-    <t>ESTABLECIMIENTO ORTOPEDICO FABAR S.R.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAZAS CRUZ  AZUCENA</t>
-  </si>
-  <si>
-    <t>VERDECHIA CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEMILLAS  JB.   S.R.L. </t>
-  </si>
-  <si>
-    <t>MANINI GUSTAVO ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCONSTI   S.R.L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELLA  JUAN PABLO </t>
-  </si>
-  <si>
-    <t>CHAR JOSE AMADO</t>
-  </si>
 </sst>
 </file>
 
@@ -360,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7400,4447 +7361,37 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="4">
-        <v>14006</v>
-      </c>
-      <c r="B208" s="4">
-        <v>368</v>
+      <c r="A208" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D208" s="5">
-        <v>45807</v>
+        <v>20</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F208" s="4">
-        <v>11</v>
-      </c>
-      <c r="G208" s="4">
-        <v>1841</v>
+        <v>20</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H208" s="6">
-        <v>295220</v>
+        <v>156159221.2</v>
       </c>
       <c r="I208" s="6">
         <v>0</v>
       </c>
       <c r="J208" s="6">
-        <v>295220</v>
+        <v>156159221.2</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="4">
-        <v>14005</v>
-      </c>
-      <c r="B209" s="4">
-        <v>340</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D209" s="5">
-        <v>45807</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F209" s="4">
-        <v>11</v>
-      </c>
-      <c r="G209" s="4">
-        <v>1840</v>
-      </c>
-      <c r="H209" s="6">
-        <v>1482580</v>
-      </c>
-      <c r="I209" s="6">
-        <v>0</v>
-      </c>
-      <c r="J209" s="6">
-        <v>1482580</v>
-      </c>
-      <c r="K209" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="4">
-        <v>14004</v>
-      </c>
-      <c r="B210" s="4">
-        <v>107</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D210" s="5">
-        <v>45807</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="4">
-        <v>11</v>
-      </c>
-      <c r="G210" s="4">
-        <v>1839</v>
-      </c>
-      <c r="H210" s="6">
-        <v>1215090</v>
-      </c>
-      <c r="I210" s="6">
-        <v>0</v>
-      </c>
-      <c r="J210" s="6">
-        <v>1215090</v>
-      </c>
-      <c r="K210" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="4">
-        <v>14003</v>
-      </c>
-      <c r="B211" s="4">
-        <v>344</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D211" s="5">
-        <v>45806</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F211" s="4">
-        <v>11</v>
-      </c>
-      <c r="G211" s="4">
-        <v>1838</v>
-      </c>
-      <c r="H211" s="6">
-        <v>252910</v>
-      </c>
-      <c r="I211" s="6">
-        <v>0</v>
-      </c>
-      <c r="J211" s="6">
-        <v>252910</v>
-      </c>
-      <c r="K211" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="4">
-        <v>14002</v>
-      </c>
-      <c r="B212" s="4">
-        <v>117</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D212" s="5">
-        <v>45805</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F212" s="4">
-        <v>11</v>
-      </c>
-      <c r="G212" s="4">
-        <v>1837</v>
-      </c>
-      <c r="H212" s="6">
-        <v>588715</v>
-      </c>
-      <c r="I212" s="6">
-        <v>0</v>
-      </c>
-      <c r="J212" s="6">
-        <v>588715</v>
-      </c>
-      <c r="K212" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="4">
-        <v>14001</v>
-      </c>
-      <c r="B213" s="4">
-        <v>104</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D213" s="5">
-        <v>45804</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F213" s="4">
-        <v>11</v>
-      </c>
-      <c r="G213" s="4">
-        <v>1836</v>
-      </c>
-      <c r="H213" s="6">
-        <v>631110</v>
-      </c>
-      <c r="I213" s="6">
-        <v>0</v>
-      </c>
-      <c r="J213" s="6">
-        <v>631110</v>
-      </c>
-      <c r="K213" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="4">
-        <v>14000</v>
-      </c>
-      <c r="B214" s="4">
-        <v>394</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D214" s="5">
-        <v>45804</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F214" s="4">
-        <v>11</v>
-      </c>
-      <c r="G214" s="4">
-        <v>1835</v>
-      </c>
-      <c r="H214" s="6">
-        <v>204600</v>
-      </c>
-      <c r="I214" s="6">
-        <v>0</v>
-      </c>
-      <c r="J214" s="6">
-        <v>204600</v>
-      </c>
-      <c r="K214" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="4">
-        <v>13999</v>
-      </c>
-      <c r="B215" s="4">
-        <v>315</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D215" s="5">
-        <v>45804</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F215" s="4">
-        <v>11</v>
-      </c>
-      <c r="G215" s="4">
-        <v>1834</v>
-      </c>
-      <c r="H215" s="6">
-        <v>2682143</v>
-      </c>
-      <c r="I215" s="6">
-        <v>0</v>
-      </c>
-      <c r="J215" s="6">
-        <v>2682143</v>
-      </c>
-      <c r="K215" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="4">
-        <v>13998</v>
-      </c>
-      <c r="B216" s="4">
-        <v>418</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D216" s="5">
-        <v>45803</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F216" s="4">
-        <v>11</v>
-      </c>
-      <c r="G216" s="4">
-        <v>1833</v>
-      </c>
-      <c r="H216" s="6">
-        <v>114800</v>
-      </c>
-      <c r="I216" s="6">
-        <v>0</v>
-      </c>
-      <c r="J216" s="6">
-        <v>114800</v>
-      </c>
-      <c r="K216" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="4">
-        <v>13997</v>
-      </c>
-      <c r="B217" s="4">
-        <v>417</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D217" s="5">
-        <v>45800</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F217" s="4">
-        <v>11</v>
-      </c>
-      <c r="G217" s="4">
-        <v>1832</v>
-      </c>
-      <c r="H217" s="6">
-        <v>1382899</v>
-      </c>
-      <c r="I217" s="6">
-        <v>0</v>
-      </c>
-      <c r="J217" s="6">
-        <v>1382899</v>
-      </c>
-      <c r="K217" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="4">
-        <v>13996</v>
-      </c>
-      <c r="B218" s="4">
-        <v>368</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D218" s="5">
-        <v>45800</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F218" s="4">
-        <v>11</v>
-      </c>
-      <c r="G218" s="4">
-        <v>1831</v>
-      </c>
-      <c r="H218" s="6">
-        <v>386100</v>
-      </c>
-      <c r="I218" s="6">
-        <v>0</v>
-      </c>
-      <c r="J218" s="6">
-        <v>386100</v>
-      </c>
-      <c r="K218" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="4">
-        <v>13994</v>
-      </c>
-      <c r="B219" s="4">
-        <v>368</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D219" s="5">
-        <v>45796</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F219" s="4">
-        <v>11</v>
-      </c>
-      <c r="G219" s="4">
-        <v>1829</v>
-      </c>
-      <c r="H219" s="6">
-        <v>1094582.5</v>
-      </c>
-      <c r="I219" s="6">
-        <v>0</v>
-      </c>
-      <c r="J219" s="6">
-        <v>1094582.5</v>
-      </c>
-      <c r="K219" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="4">
-        <v>13993</v>
-      </c>
-      <c r="B220" s="4">
-        <v>239</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D220" s="5">
-        <v>45793</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F220" s="4">
-        <v>11</v>
-      </c>
-      <c r="G220" s="4">
-        <v>1828</v>
-      </c>
-      <c r="H220" s="6">
-        <v>47000</v>
-      </c>
-      <c r="I220" s="6">
-        <v>0</v>
-      </c>
-      <c r="J220" s="6">
-        <v>47000</v>
-      </c>
-      <c r="K220" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="4">
-        <v>13992</v>
-      </c>
-      <c r="B221" s="4">
-        <v>343</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D221" s="5">
-        <v>45792</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F221" s="4">
-        <v>11</v>
-      </c>
-      <c r="G221" s="4">
-        <v>1827</v>
-      </c>
-      <c r="H221" s="6">
-        <v>667200</v>
-      </c>
-      <c r="I221" s="6">
-        <v>0</v>
-      </c>
-      <c r="J221" s="6">
-        <v>667200</v>
-      </c>
-      <c r="K221" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="4">
-        <v>13991</v>
-      </c>
-      <c r="B222" s="4">
-        <v>343</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D222" s="5">
-        <v>45792</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F222" s="4">
-        <v>11</v>
-      </c>
-      <c r="G222" s="4">
-        <v>1826</v>
-      </c>
-      <c r="H222" s="6">
-        <v>1036870</v>
-      </c>
-      <c r="I222" s="6">
-        <v>0</v>
-      </c>
-      <c r="J222" s="6">
-        <v>1036870</v>
-      </c>
-      <c r="K222" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="4">
-        <v>13990</v>
-      </c>
-      <c r="B223" s="4">
-        <v>417</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D223" s="5">
-        <v>45791</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F223" s="4">
-        <v>11</v>
-      </c>
-      <c r="G223" s="4">
-        <v>1825</v>
-      </c>
-      <c r="H223" s="6">
-        <v>1879406.1</v>
-      </c>
-      <c r="I223" s="6">
-        <v>0</v>
-      </c>
-      <c r="J223" s="6">
-        <v>1879406.1</v>
-      </c>
-      <c r="K223" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="4">
-        <v>13989</v>
-      </c>
-      <c r="B224" s="4">
-        <v>384</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D224" s="5">
-        <v>45791</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F224" s="4">
-        <v>11</v>
-      </c>
-      <c r="G224" s="4">
-        <v>1824</v>
-      </c>
-      <c r="H224" s="6">
-        <v>1244690</v>
-      </c>
-      <c r="I224" s="6">
-        <v>0</v>
-      </c>
-      <c r="J224" s="6">
-        <v>1244690</v>
-      </c>
-      <c r="K224" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="4">
-        <v>13988</v>
-      </c>
-      <c r="B225" s="4">
-        <v>405</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D225" s="5">
-        <v>45791</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F225" s="4">
-        <v>11</v>
-      </c>
-      <c r="G225" s="4">
-        <v>1823</v>
-      </c>
-      <c r="H225" s="6">
-        <v>2436000</v>
-      </c>
-      <c r="I225" s="6">
-        <v>0</v>
-      </c>
-      <c r="J225" s="6">
-        <v>2436000</v>
-      </c>
-      <c r="K225" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="4">
-        <v>13987</v>
-      </c>
-      <c r="B226" s="4">
-        <v>295</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D226" s="5">
-        <v>45790</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F226" s="4">
-        <v>11</v>
-      </c>
-      <c r="G226" s="4">
-        <v>1822</v>
-      </c>
-      <c r="H226" s="6">
-        <v>759000</v>
-      </c>
-      <c r="I226" s="6">
-        <v>0</v>
-      </c>
-      <c r="J226" s="6">
-        <v>759000</v>
-      </c>
-      <c r="K226" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="4">
-        <v>13986</v>
-      </c>
-      <c r="B227" s="4">
-        <v>405</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D227" s="5">
-        <v>45790</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F227" s="4">
-        <v>11</v>
-      </c>
-      <c r="G227" s="4">
-        <v>1821</v>
-      </c>
-      <c r="H227" s="6">
-        <v>2496530</v>
-      </c>
-      <c r="I227" s="6">
-        <v>0</v>
-      </c>
-      <c r="J227" s="6">
-        <v>2496530</v>
-      </c>
-      <c r="K227" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="4">
-        <v>13984</v>
-      </c>
-      <c r="B228" s="4">
-        <v>278</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D228" s="5">
-        <v>45786</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F228" s="4">
-        <v>11</v>
-      </c>
-      <c r="G228" s="4">
-        <v>1819</v>
-      </c>
-      <c r="H228" s="6">
-        <v>1261440</v>
-      </c>
-      <c r="I228" s="6">
-        <v>0</v>
-      </c>
-      <c r="J228" s="6">
-        <v>1261440</v>
-      </c>
-      <c r="K228" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="4">
-        <v>13983</v>
-      </c>
-      <c r="B229" s="4">
-        <v>368</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D229" s="5">
-        <v>45785</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="4">
-        <v>11</v>
-      </c>
-      <c r="G229" s="4">
-        <v>1818</v>
-      </c>
-      <c r="H229" s="6">
-        <v>105300</v>
-      </c>
-      <c r="I229" s="6">
-        <v>0</v>
-      </c>
-      <c r="J229" s="6">
-        <v>105300</v>
-      </c>
-      <c r="K229" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="4">
-        <v>13982</v>
-      </c>
-      <c r="B230" s="4">
-        <v>239</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D230" s="5">
-        <v>45784</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F230" s="4">
-        <v>11</v>
-      </c>
-      <c r="G230" s="4">
-        <v>1817</v>
-      </c>
-      <c r="H230" s="6">
-        <v>47000</v>
-      </c>
-      <c r="I230" s="6">
-        <v>0</v>
-      </c>
-      <c r="J230" s="6">
-        <v>47000</v>
-      </c>
-      <c r="K230" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="4">
-        <v>13981</v>
-      </c>
-      <c r="B231" s="4">
-        <v>239</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D231" s="5">
-        <v>45782</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F231" s="4">
-        <v>11</v>
-      </c>
-      <c r="G231" s="4">
-        <v>1816</v>
-      </c>
-      <c r="H231" s="6">
-        <v>64385</v>
-      </c>
-      <c r="I231" s="6">
-        <v>0</v>
-      </c>
-      <c r="J231" s="6">
-        <v>64385</v>
-      </c>
-      <c r="K231" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="4">
-        <v>13980</v>
-      </c>
-      <c r="B232" s="4">
-        <v>385</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D232" s="5">
-        <v>45777</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F232" s="4">
-        <v>11</v>
-      </c>
-      <c r="G232" s="4">
-        <v>1815</v>
-      </c>
-      <c r="H232" s="6">
-        <v>937000</v>
-      </c>
-      <c r="I232" s="6">
-        <v>0</v>
-      </c>
-      <c r="J232" s="6">
-        <v>937000</v>
-      </c>
-      <c r="K232" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="4">
-        <v>13979</v>
-      </c>
-      <c r="B233" s="4">
-        <v>315</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D233" s="5">
-        <v>45777</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F233" s="4">
-        <v>11</v>
-      </c>
-      <c r="G233" s="4">
-        <v>1814</v>
-      </c>
-      <c r="H233" s="6">
-        <v>803450</v>
-      </c>
-      <c r="I233" s="6">
-        <v>0</v>
-      </c>
-      <c r="J233" s="6">
-        <v>803450</v>
-      </c>
-      <c r="K233" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="4">
-        <v>13978</v>
-      </c>
-      <c r="B234" s="4">
-        <v>239</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D234" s="5">
-        <v>45776</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F234" s="4">
-        <v>11</v>
-      </c>
-      <c r="G234" s="4">
-        <v>1813</v>
-      </c>
-      <c r="H234" s="6">
-        <v>187200</v>
-      </c>
-      <c r="I234" s="6">
-        <v>0</v>
-      </c>
-      <c r="J234" s="6">
-        <v>187200</v>
-      </c>
-      <c r="K234" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="4">
-        <v>13977</v>
-      </c>
-      <c r="B235" s="4">
-        <v>344</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D235" s="5">
-        <v>45776</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F235" s="4">
-        <v>11</v>
-      </c>
-      <c r="G235" s="4">
-        <v>1812</v>
-      </c>
-      <c r="H235" s="6">
-        <v>252910</v>
-      </c>
-      <c r="I235" s="6">
-        <v>0</v>
-      </c>
-      <c r="J235" s="6">
-        <v>252910</v>
-      </c>
-      <c r="K235" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="4">
-        <v>13976</v>
-      </c>
-      <c r="B236" s="4">
-        <v>101</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D236" s="5">
-        <v>45775</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F236" s="4">
-        <v>11</v>
-      </c>
-      <c r="G236" s="4">
-        <v>1811</v>
-      </c>
-      <c r="H236" s="6">
-        <v>1004230.7</v>
-      </c>
-      <c r="I236" s="6">
-        <v>0</v>
-      </c>
-      <c r="J236" s="6">
-        <v>1004230.7</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="4">
-        <v>13975</v>
-      </c>
-      <c r="B237" s="4">
-        <v>104</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D237" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F237" s="4">
-        <v>11</v>
-      </c>
-      <c r="G237" s="4">
-        <v>1810</v>
-      </c>
-      <c r="H237" s="6">
-        <v>855260</v>
-      </c>
-      <c r="I237" s="6">
-        <v>0</v>
-      </c>
-      <c r="J237" s="6">
-        <v>855260</v>
-      </c>
-      <c r="K237" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="4">
-        <v>13974</v>
-      </c>
-      <c r="B238" s="4">
-        <v>317</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D238" s="5">
-        <v>45772</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F238" s="4">
-        <v>11</v>
-      </c>
-      <c r="G238" s="4">
-        <v>1809</v>
-      </c>
-      <c r="H238" s="6">
-        <v>401440</v>
-      </c>
-      <c r="I238" s="6">
-        <v>0</v>
-      </c>
-      <c r="J238" s="6">
-        <v>401440</v>
-      </c>
-      <c r="K238" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="4">
-        <v>13973</v>
-      </c>
-      <c r="B239" s="4">
-        <v>114</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D239" s="5">
-        <v>45769</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F239" s="4">
-        <v>11</v>
-      </c>
-      <c r="G239" s="4">
-        <v>1808</v>
-      </c>
-      <c r="H239" s="6">
-        <v>433470</v>
-      </c>
-      <c r="I239" s="6">
-        <v>0</v>
-      </c>
-      <c r="J239" s="6">
-        <v>433470</v>
-      </c>
-      <c r="K239" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="4">
-        <v>13971</v>
-      </c>
-      <c r="B240" s="4">
-        <v>343</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D240" s="5">
-        <v>45769</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F240" s="4">
-        <v>11</v>
-      </c>
-      <c r="G240" s="4">
-        <v>1806</v>
-      </c>
-      <c r="H240" s="6">
-        <v>963090</v>
-      </c>
-      <c r="I240" s="6">
-        <v>0</v>
-      </c>
-      <c r="J240" s="6">
-        <v>963090</v>
-      </c>
-      <c r="K240" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="4">
-        <v>13970</v>
-      </c>
-      <c r="B241" s="4">
-        <v>196</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D241" s="5">
-        <v>45769</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F241" s="4">
-        <v>11</v>
-      </c>
-      <c r="G241" s="4">
-        <v>1805</v>
-      </c>
-      <c r="H241" s="6">
-        <v>1242480</v>
-      </c>
-      <c r="I241" s="6">
-        <v>0</v>
-      </c>
-      <c r="J241" s="6">
-        <v>1242480</v>
-      </c>
-      <c r="K241" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="4">
-        <v>13969</v>
-      </c>
-      <c r="B242" s="4">
-        <v>408</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D242" s="5">
-        <v>45769</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F242" s="4">
-        <v>11</v>
-      </c>
-      <c r="G242" s="4">
-        <v>1804</v>
-      </c>
-      <c r="H242" s="6">
-        <v>679098</v>
-      </c>
-      <c r="I242" s="6">
-        <v>0</v>
-      </c>
-      <c r="J242" s="6">
-        <v>679098</v>
-      </c>
-      <c r="K242" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="4">
-        <v>13967</v>
-      </c>
-      <c r="B243" s="4">
-        <v>278</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D243" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F243" s="4">
-        <v>11</v>
-      </c>
-      <c r="G243" s="4">
-        <v>1802</v>
-      </c>
-      <c r="H243" s="6">
-        <v>1182805</v>
-      </c>
-      <c r="I243" s="6">
-        <v>0</v>
-      </c>
-      <c r="J243" s="6">
-        <v>1182805</v>
-      </c>
-      <c r="K243" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="4">
-        <v>13966</v>
-      </c>
-      <c r="B244" s="4">
-        <v>368</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D244" s="5">
-        <v>45763</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F244" s="4">
-        <v>11</v>
-      </c>
-      <c r="G244" s="4">
-        <v>1801</v>
-      </c>
-      <c r="H244" s="6">
-        <v>76440</v>
-      </c>
-      <c r="I244" s="6">
-        <v>0</v>
-      </c>
-      <c r="J244" s="6">
-        <v>76440</v>
-      </c>
-      <c r="K244" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="4">
-        <v>13965</v>
-      </c>
-      <c r="B245" s="4">
-        <v>107</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D245" s="5">
-        <v>45762</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F245" s="4">
-        <v>11</v>
-      </c>
-      <c r="G245" s="4">
-        <v>1800</v>
-      </c>
-      <c r="H245" s="6">
-        <v>1097100</v>
-      </c>
-      <c r="I245" s="6">
-        <v>0</v>
-      </c>
-      <c r="J245" s="6">
-        <v>1097100</v>
-      </c>
-      <c r="K245" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="4">
-        <v>13964</v>
-      </c>
-      <c r="B246" s="4">
-        <v>340</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D246" s="5">
-        <v>45762</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F246" s="4">
-        <v>11</v>
-      </c>
-      <c r="G246" s="4">
-        <v>1799</v>
-      </c>
-      <c r="H246" s="6">
-        <v>215000</v>
-      </c>
-      <c r="I246" s="6">
-        <v>0</v>
-      </c>
-      <c r="J246" s="6">
-        <v>215000</v>
-      </c>
-      <c r="K246" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="4">
-        <v>13963</v>
-      </c>
-      <c r="B247" s="4">
-        <v>340</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D247" s="5">
-        <v>45762</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F247" s="4">
-        <v>11</v>
-      </c>
-      <c r="G247" s="4">
-        <v>1798</v>
-      </c>
-      <c r="H247" s="6">
-        <v>1921500</v>
-      </c>
-      <c r="I247" s="6">
-        <v>0</v>
-      </c>
-      <c r="J247" s="6">
-        <v>1921500</v>
-      </c>
-      <c r="K247" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="4">
-        <v>13962</v>
-      </c>
-      <c r="B248" s="4">
-        <v>340</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D248" s="5">
-        <v>45762</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F248" s="4">
-        <v>11</v>
-      </c>
-      <c r="G248" s="4">
-        <v>1797</v>
-      </c>
-      <c r="H248" s="6">
-        <v>296505</v>
-      </c>
-      <c r="I248" s="6">
-        <v>0</v>
-      </c>
-      <c r="J248" s="6">
-        <v>296505</v>
-      </c>
-      <c r="K248" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="4">
-        <v>13961</v>
-      </c>
-      <c r="B249" s="4">
-        <v>414</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D249" s="5">
-        <v>45758</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F249" s="4">
-        <v>11</v>
-      </c>
-      <c r="G249" s="4">
-        <v>1796</v>
-      </c>
-      <c r="H249" s="6">
-        <v>867080</v>
-      </c>
-      <c r="I249" s="6">
-        <v>0</v>
-      </c>
-      <c r="J249" s="6">
-        <v>867080</v>
-      </c>
-      <c r="K249" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="4">
-        <v>13960</v>
-      </c>
-      <c r="B250" s="4">
-        <v>340</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D250" s="5">
-        <v>45758</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F250" s="4">
-        <v>11</v>
-      </c>
-      <c r="G250" s="4">
-        <v>1795</v>
-      </c>
-      <c r="H250" s="6">
-        <v>1942425</v>
-      </c>
-      <c r="I250" s="6">
-        <v>0</v>
-      </c>
-      <c r="J250" s="6">
-        <v>1942425</v>
-      </c>
-      <c r="K250" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="4">
-        <v>13959</v>
-      </c>
-      <c r="B251" s="4">
-        <v>239</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D251" s="5">
-        <v>45758</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F251" s="4">
-        <v>11</v>
-      </c>
-      <c r="G251" s="4">
-        <v>1794</v>
-      </c>
-      <c r="H251" s="6">
-        <v>599760</v>
-      </c>
-      <c r="I251" s="6">
-        <v>0</v>
-      </c>
-      <c r="J251" s="6">
-        <v>599760</v>
-      </c>
-      <c r="K251" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="4">
-        <v>13958</v>
-      </c>
-      <c r="B252" s="4">
-        <v>118</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D252" s="5">
-        <v>45758</v>
-      </c>
-      <c r="E252" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F252" s="4">
-        <v>11</v>
-      </c>
-      <c r="G252" s="4">
-        <v>1793</v>
-      </c>
-      <c r="H252" s="6">
-        <v>425100</v>
-      </c>
-      <c r="I252" s="6">
-        <v>0</v>
-      </c>
-      <c r="J252" s="6">
-        <v>425100</v>
-      </c>
-      <c r="K252" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="4">
-        <v>13957</v>
-      </c>
-      <c r="B253" s="4">
-        <v>144</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D253" s="5">
-        <v>45757</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F253" s="4">
-        <v>11</v>
-      </c>
-      <c r="G253" s="4">
-        <v>1792</v>
-      </c>
-      <c r="H253" s="6">
-        <v>320885</v>
-      </c>
-      <c r="I253" s="6">
-        <v>0</v>
-      </c>
-      <c r="J253" s="6">
-        <v>320885</v>
-      </c>
-      <c r="K253" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="4">
-        <v>13956</v>
-      </c>
-      <c r="B254" s="4">
-        <v>401</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D254" s="5">
-        <v>45756</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F254" s="4">
-        <v>11</v>
-      </c>
-      <c r="G254" s="4">
-        <v>1791</v>
-      </c>
-      <c r="H254" s="6">
-        <v>596295</v>
-      </c>
-      <c r="I254" s="6">
-        <v>0</v>
-      </c>
-      <c r="J254" s="6">
-        <v>596295</v>
-      </c>
-      <c r="K254" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="4">
-        <v>13955</v>
-      </c>
-      <c r="B255" s="4">
-        <v>101</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" s="5">
-        <v>45756</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F255" s="4">
-        <v>11</v>
-      </c>
-      <c r="G255" s="4">
-        <v>1790</v>
-      </c>
-      <c r="H255" s="6">
-        <v>901808</v>
-      </c>
-      <c r="I255" s="6">
-        <v>0</v>
-      </c>
-      <c r="J255" s="6">
-        <v>901808</v>
-      </c>
-      <c r="K255" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="4">
-        <v>13954</v>
-      </c>
-      <c r="B256" s="4">
-        <v>101</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D256" s="5">
-        <v>45755</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F256" s="4">
-        <v>11</v>
-      </c>
-      <c r="G256" s="4">
-        <v>1789</v>
-      </c>
-      <c r="H256" s="6">
-        <v>699500</v>
-      </c>
-      <c r="I256" s="6">
-        <v>0</v>
-      </c>
-      <c r="J256" s="6">
-        <v>699500</v>
-      </c>
-      <c r="K256" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="4">
-        <v>13953</v>
-      </c>
-      <c r="B257" s="4">
-        <v>340</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D257" s="5">
-        <v>45754</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F257" s="4">
-        <v>11</v>
-      </c>
-      <c r="G257" s="4">
-        <v>1788</v>
-      </c>
-      <c r="H257" s="6">
-        <v>1196802</v>
-      </c>
-      <c r="I257" s="6">
-        <v>0</v>
-      </c>
-      <c r="J257" s="6">
-        <v>1196802</v>
-      </c>
-      <c r="K257" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="4">
-        <v>13952</v>
-      </c>
-      <c r="B258" s="4">
-        <v>117</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D258" s="5">
-        <v>45751</v>
-      </c>
-      <c r="E258" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F258" s="4">
-        <v>11</v>
-      </c>
-      <c r="G258" s="4">
-        <v>1787</v>
-      </c>
-      <c r="H258" s="6">
-        <v>629540</v>
-      </c>
-      <c r="I258" s="6">
-        <v>0</v>
-      </c>
-      <c r="J258" s="6">
-        <v>629540</v>
-      </c>
-      <c r="K258" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="4">
-        <v>13951</v>
-      </c>
-      <c r="B259" s="4">
-        <v>239</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D259" s="5">
-        <v>45750</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F259" s="4">
-        <v>11</v>
-      </c>
-      <c r="G259" s="4">
-        <v>1786</v>
-      </c>
-      <c r="H259" s="6">
-        <v>772210</v>
-      </c>
-      <c r="I259" s="6">
-        <v>0</v>
-      </c>
-      <c r="J259" s="6">
-        <v>772210</v>
-      </c>
-      <c r="K259" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="4">
-        <v>13950</v>
-      </c>
-      <c r="B260" s="4">
-        <v>101</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D260" s="5">
-        <v>45750</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F260" s="4">
-        <v>11</v>
-      </c>
-      <c r="G260" s="4">
-        <v>1785</v>
-      </c>
-      <c r="H260" s="6">
-        <v>827495</v>
-      </c>
-      <c r="I260" s="6">
-        <v>0</v>
-      </c>
-      <c r="J260" s="6">
-        <v>827495</v>
-      </c>
-      <c r="K260" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="4">
-        <v>13949</v>
-      </c>
-      <c r="B261" s="4">
-        <v>312</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D261" s="5">
-        <v>45750</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F261" s="4">
-        <v>11</v>
-      </c>
-      <c r="G261" s="4">
-        <v>1784</v>
-      </c>
-      <c r="H261" s="6">
-        <v>642195</v>
-      </c>
-      <c r="I261" s="6">
-        <v>0</v>
-      </c>
-      <c r="J261" s="6">
-        <v>642195</v>
-      </c>
-      <c r="K261" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="4">
-        <v>13948</v>
-      </c>
-      <c r="B262" s="4">
-        <v>144</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D262" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F262" s="4">
-        <v>11</v>
-      </c>
-      <c r="G262" s="4">
-        <v>1783</v>
-      </c>
-      <c r="H262" s="6">
-        <v>87032.5</v>
-      </c>
-      <c r="I262" s="6">
-        <v>0</v>
-      </c>
-      <c r="J262" s="6">
-        <v>87032.5</v>
-      </c>
-      <c r="K262" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="4">
-        <v>13947</v>
-      </c>
-      <c r="B263" s="4">
-        <v>368</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D263" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F263" s="4">
-        <v>11</v>
-      </c>
-      <c r="G263" s="4">
-        <v>1782</v>
-      </c>
-      <c r="H263" s="6">
-        <v>30001</v>
-      </c>
-      <c r="I263" s="6">
-        <v>0</v>
-      </c>
-      <c r="J263" s="6">
-        <v>30001</v>
-      </c>
-      <c r="K263" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="4">
-        <v>13946</v>
-      </c>
-      <c r="B264" s="4">
-        <v>368</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D264" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F264" s="4">
-        <v>11</v>
-      </c>
-      <c r="G264" s="4">
-        <v>1781</v>
-      </c>
-      <c r="H264" s="6">
-        <v>80003.25</v>
-      </c>
-      <c r="I264" s="6">
-        <v>0</v>
-      </c>
-      <c r="J264" s="6">
-        <v>80003.25</v>
-      </c>
-      <c r="K264" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="4">
-        <v>13945</v>
-      </c>
-      <c r="B265" s="4">
-        <v>408</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D265" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F265" s="4">
-        <v>11</v>
-      </c>
-      <c r="G265" s="4">
-        <v>1780</v>
-      </c>
-      <c r="H265" s="6">
-        <v>1261250</v>
-      </c>
-      <c r="I265" s="6">
-        <v>0</v>
-      </c>
-      <c r="J265" s="6">
-        <v>1261250</v>
-      </c>
-      <c r="K265" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="4">
-        <v>13944</v>
-      </c>
-      <c r="B266" s="4">
-        <v>408</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D266" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F266" s="4">
-        <v>11</v>
-      </c>
-      <c r="G266" s="4">
-        <v>1779</v>
-      </c>
-      <c r="H266" s="6">
-        <v>818630</v>
-      </c>
-      <c r="I266" s="6">
-        <v>0</v>
-      </c>
-      <c r="J266" s="6">
-        <v>818630</v>
-      </c>
-      <c r="K266" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="4">
-        <v>13943</v>
-      </c>
-      <c r="B267" s="4">
-        <v>315</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D267" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F267" s="4">
-        <v>11</v>
-      </c>
-      <c r="G267" s="4">
-        <v>1778</v>
-      </c>
-      <c r="H267" s="6">
-        <v>1640000</v>
-      </c>
-      <c r="I267" s="6">
-        <v>0</v>
-      </c>
-      <c r="J267" s="6">
-        <v>1640000</v>
-      </c>
-      <c r="K267" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="4">
-        <v>13942</v>
-      </c>
-      <c r="B268" s="4">
-        <v>101</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D268" s="5">
-        <v>45744</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F268" s="4">
-        <v>11</v>
-      </c>
-      <c r="G268" s="4">
-        <v>1777</v>
-      </c>
-      <c r="H268" s="6">
-        <v>347750</v>
-      </c>
-      <c r="I268" s="6">
-        <v>0</v>
-      </c>
-      <c r="J268" s="6">
-        <v>347750</v>
-      </c>
-      <c r="K268" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="4">
-        <v>13941</v>
-      </c>
-      <c r="B269" s="4">
-        <v>126</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D269" s="5">
-        <v>45743</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F269" s="4">
-        <v>11</v>
-      </c>
-      <c r="G269" s="4">
-        <v>1776</v>
-      </c>
-      <c r="H269" s="6">
-        <v>170200</v>
-      </c>
-      <c r="I269" s="6">
-        <v>0</v>
-      </c>
-      <c r="J269" s="6">
-        <v>170200</v>
-      </c>
-      <c r="K269" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="4">
-        <v>13940</v>
-      </c>
-      <c r="B270" s="4">
-        <v>371</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D270" s="5">
-        <v>45742</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F270" s="4">
-        <v>11</v>
-      </c>
-      <c r="G270" s="4">
-        <v>1775</v>
-      </c>
-      <c r="H270" s="6">
-        <v>205200</v>
-      </c>
-      <c r="I270" s="6">
-        <v>0</v>
-      </c>
-      <c r="J270" s="6">
-        <v>205200</v>
-      </c>
-      <c r="K270" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="4">
-        <v>13939</v>
-      </c>
-      <c r="B271" s="4">
-        <v>343</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D271" s="5">
-        <v>45742</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F271" s="4">
-        <v>11</v>
-      </c>
-      <c r="G271" s="4">
-        <v>1774</v>
-      </c>
-      <c r="H271" s="6">
-        <v>994400</v>
-      </c>
-      <c r="I271" s="6">
-        <v>0</v>
-      </c>
-      <c r="J271" s="6">
-        <v>994400</v>
-      </c>
-      <c r="K271" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="4">
-        <v>13938</v>
-      </c>
-      <c r="B272" s="4">
-        <v>119</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D272" s="5">
-        <v>45741</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F272" s="4">
-        <v>11</v>
-      </c>
-      <c r="G272" s="4">
-        <v>1773</v>
-      </c>
-      <c r="H272" s="6">
-        <v>317955</v>
-      </c>
-      <c r="I272" s="6">
-        <v>0</v>
-      </c>
-      <c r="J272" s="6">
-        <v>317955</v>
-      </c>
-      <c r="K272" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="4">
-        <v>13937</v>
-      </c>
-      <c r="B273" s="4">
-        <v>295</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D273" s="5">
-        <v>45736</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F273" s="4">
-        <v>11</v>
-      </c>
-      <c r="G273" s="4">
-        <v>1772</v>
-      </c>
-      <c r="H273" s="6">
-        <v>540200</v>
-      </c>
-      <c r="I273" s="6">
-        <v>0</v>
-      </c>
-      <c r="J273" s="6">
-        <v>540200</v>
-      </c>
-      <c r="K273" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="4">
-        <v>13936</v>
-      </c>
-      <c r="B274" s="4">
-        <v>344</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D274" s="5">
-        <v>45736</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F274" s="4">
-        <v>11</v>
-      </c>
-      <c r="G274" s="4">
-        <v>1771</v>
-      </c>
-      <c r="H274" s="6">
-        <v>230092.5</v>
-      </c>
-      <c r="I274" s="6">
-        <v>0</v>
-      </c>
-      <c r="J274" s="6">
-        <v>230092.5</v>
-      </c>
-      <c r="K274" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="4">
-        <v>13935</v>
-      </c>
-      <c r="B275" s="4">
-        <v>278</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D275" s="5">
-        <v>45736</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F275" s="4">
-        <v>11</v>
-      </c>
-      <c r="G275" s="4">
-        <v>1770</v>
-      </c>
-      <c r="H275" s="6">
-        <v>932490</v>
-      </c>
-      <c r="I275" s="6">
-        <v>0</v>
-      </c>
-      <c r="J275" s="6">
-        <v>932490</v>
-      </c>
-      <c r="K275" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="4">
-        <v>13934</v>
-      </c>
-      <c r="B276" s="4">
-        <v>101</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D276" s="5">
-        <v>45734</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F276" s="4">
-        <v>11</v>
-      </c>
-      <c r="G276" s="4">
-        <v>1769</v>
-      </c>
-      <c r="H276" s="6">
-        <v>632450</v>
-      </c>
-      <c r="I276" s="6">
-        <v>0</v>
-      </c>
-      <c r="J276" s="6">
-        <v>632450</v>
-      </c>
-      <c r="K276" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="4">
-        <v>13933</v>
-      </c>
-      <c r="B277" s="4">
-        <v>412</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D277" s="5">
-        <v>45734</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F277" s="4">
-        <v>11</v>
-      </c>
-      <c r="G277" s="4">
-        <v>1768</v>
-      </c>
-      <c r="H277" s="6">
-        <v>458400</v>
-      </c>
-      <c r="I277" s="6">
-        <v>0</v>
-      </c>
-      <c r="J277" s="6">
-        <v>458400</v>
-      </c>
-      <c r="K277" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="4">
-        <v>13932</v>
-      </c>
-      <c r="B278" s="4">
-        <v>104</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D278" s="5">
-        <v>45733</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F278" s="4">
-        <v>11</v>
-      </c>
-      <c r="G278" s="4">
-        <v>1767</v>
-      </c>
-      <c r="H278" s="6">
-        <v>1353780</v>
-      </c>
-      <c r="I278" s="6">
-        <v>0</v>
-      </c>
-      <c r="J278" s="6">
-        <v>1353780</v>
-      </c>
-      <c r="K278" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="4">
-        <v>13931</v>
-      </c>
-      <c r="B279" s="4">
-        <v>104</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D279" s="5">
-        <v>45729</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F279" s="4">
-        <v>11</v>
-      </c>
-      <c r="G279" s="4">
-        <v>1766</v>
-      </c>
-      <c r="H279" s="6">
-        <v>969610</v>
-      </c>
-      <c r="I279" s="6">
-        <v>0</v>
-      </c>
-      <c r="J279" s="6">
-        <v>969610</v>
-      </c>
-      <c r="K279" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="4">
-        <v>13930</v>
-      </c>
-      <c r="B280" s="4">
-        <v>295</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D280" s="5">
-        <v>45729</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F280" s="4">
-        <v>11</v>
-      </c>
-      <c r="G280" s="4">
-        <v>1765</v>
-      </c>
-      <c r="H280" s="6">
-        <v>693000</v>
-      </c>
-      <c r="I280" s="6">
-        <v>0</v>
-      </c>
-      <c r="J280" s="6">
-        <v>693000</v>
-      </c>
-      <c r="K280" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="4">
-        <v>13929</v>
-      </c>
-      <c r="B281" s="4">
-        <v>345</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D281" s="5">
-        <v>45728</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F281" s="4">
-        <v>11</v>
-      </c>
-      <c r="G281" s="4">
-        <v>1764</v>
-      </c>
-      <c r="H281" s="6">
-        <v>433650</v>
-      </c>
-      <c r="I281" s="6">
-        <v>0</v>
-      </c>
-      <c r="J281" s="6">
-        <v>433650</v>
-      </c>
-      <c r="K281" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="4">
-        <v>13928</v>
-      </c>
-      <c r="B282" s="4">
-        <v>101</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D282" s="5">
-        <v>45727</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F282" s="4">
-        <v>11</v>
-      </c>
-      <c r="G282" s="4">
-        <v>1763</v>
-      </c>
-      <c r="H282" s="6">
-        <v>1528622</v>
-      </c>
-      <c r="I282" s="6">
-        <v>0</v>
-      </c>
-      <c r="J282" s="6">
-        <v>1528622</v>
-      </c>
-      <c r="K282" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="4">
-        <v>13927</v>
-      </c>
-      <c r="B283" s="4">
-        <v>146</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D283" s="5">
-        <v>45727</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F283" s="4">
-        <v>11</v>
-      </c>
-      <c r="G283" s="4">
-        <v>1762</v>
-      </c>
-      <c r="H283" s="6">
-        <v>352980</v>
-      </c>
-      <c r="I283" s="6">
-        <v>0</v>
-      </c>
-      <c r="J283" s="6">
-        <v>352980</v>
-      </c>
-      <c r="K283" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="4">
-        <v>13926</v>
-      </c>
-      <c r="B284" s="4">
-        <v>405</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D284" s="5">
-        <v>45726</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F284" s="4">
-        <v>11</v>
-      </c>
-      <c r="G284" s="4">
-        <v>1761</v>
-      </c>
-      <c r="H284" s="6">
-        <v>1731560</v>
-      </c>
-      <c r="I284" s="6">
-        <v>0</v>
-      </c>
-      <c r="J284" s="6">
-        <v>1731560</v>
-      </c>
-      <c r="K284" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="4">
-        <v>13925</v>
-      </c>
-      <c r="B285" s="4">
-        <v>368</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D285" s="5">
-        <v>45723</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F285" s="4">
-        <v>11</v>
-      </c>
-      <c r="G285" s="4">
-        <v>1760</v>
-      </c>
-      <c r="H285" s="6">
-        <v>212420</v>
-      </c>
-      <c r="I285" s="6">
-        <v>0</v>
-      </c>
-      <c r="J285" s="6">
-        <v>212420</v>
-      </c>
-      <c r="K285" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="4">
-        <v>13924</v>
-      </c>
-      <c r="B286" s="4">
-        <v>117</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D286" s="5">
-        <v>45716</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F286" s="4">
-        <v>11</v>
-      </c>
-      <c r="G286" s="4">
-        <v>43</v>
-      </c>
-      <c r="H286" s="6">
-        <v>-180250</v>
-      </c>
-      <c r="I286" s="6">
-        <v>0</v>
-      </c>
-      <c r="J286" s="6">
-        <v>-180250</v>
-      </c>
-      <c r="K286" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="4">
-        <v>13922</v>
-      </c>
-      <c r="B287" s="4">
-        <v>398</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D287" s="5">
-        <v>45715</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F287" s="4">
-        <v>11</v>
-      </c>
-      <c r="G287" s="4">
-        <v>42</v>
-      </c>
-      <c r="H287" s="6">
-        <v>-288380</v>
-      </c>
-      <c r="I287" s="6">
-        <v>0</v>
-      </c>
-      <c r="J287" s="6">
-        <v>-288380</v>
-      </c>
-      <c r="K287" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="4">
-        <v>13923</v>
-      </c>
-      <c r="B288" s="4">
-        <v>117</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D288" s="5">
-        <v>45715</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F288" s="4">
-        <v>11</v>
-      </c>
-      <c r="G288" s="4">
-        <v>1759</v>
-      </c>
-      <c r="H288" s="6">
-        <v>180250</v>
-      </c>
-      <c r="I288" s="6">
-        <v>0</v>
-      </c>
-      <c r="J288" s="6">
-        <v>180250</v>
-      </c>
-      <c r="K288" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="4">
-        <v>13921</v>
-      </c>
-      <c r="B289" s="4">
-        <v>117</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D289" s="5">
-        <v>45714</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F289" s="4">
-        <v>11</v>
-      </c>
-      <c r="G289" s="4">
-        <v>1758</v>
-      </c>
-      <c r="H289" s="6">
-        <v>12000</v>
-      </c>
-      <c r="I289" s="6">
-        <v>0</v>
-      </c>
-      <c r="J289" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K289" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="4">
-        <v>13920</v>
-      </c>
-      <c r="B290" s="4">
-        <v>117</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D290" s="5">
-        <v>45713</v>
-      </c>
-      <c r="E290" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F290" s="4">
-        <v>11</v>
-      </c>
-      <c r="G290" s="4">
-        <v>41</v>
-      </c>
-      <c r="H290" s="6">
-        <v>-2328456</v>
-      </c>
-      <c r="I290" s="6">
-        <v>0</v>
-      </c>
-      <c r="J290" s="6">
-        <v>-2328456</v>
-      </c>
-      <c r="K290" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="4">
-        <v>13919</v>
-      </c>
-      <c r="B291" s="4">
-        <v>260</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D291" s="5">
-        <v>45713</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F291" s="4">
-        <v>11</v>
-      </c>
-      <c r="G291" s="4">
-        <v>40</v>
-      </c>
-      <c r="H291" s="6">
-        <v>-389250</v>
-      </c>
-      <c r="I291" s="6">
-        <v>0</v>
-      </c>
-      <c r="J291" s="6">
-        <v>-389250</v>
-      </c>
-      <c r="K291" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="4">
-        <v>13918</v>
-      </c>
-      <c r="B292" s="4">
-        <v>117</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D292" s="5">
-        <v>45713</v>
-      </c>
-      <c r="E292" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F292" s="4">
-        <v>11</v>
-      </c>
-      <c r="G292" s="4">
-        <v>1757</v>
-      </c>
-      <c r="H292" s="6">
-        <v>166191</v>
-      </c>
-      <c r="I292" s="6">
-        <v>0</v>
-      </c>
-      <c r="J292" s="6">
-        <v>166191</v>
-      </c>
-      <c r="K292" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="4">
-        <v>13917</v>
-      </c>
-      <c r="B293" s="4">
-        <v>368</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D293" s="5">
-        <v>45709</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F293" s="4">
-        <v>11</v>
-      </c>
-      <c r="G293" s="4">
-        <v>1756</v>
-      </c>
-      <c r="H293" s="6">
-        <v>940940</v>
-      </c>
-      <c r="I293" s="6">
-        <v>0</v>
-      </c>
-      <c r="J293" s="6">
-        <v>940940</v>
-      </c>
-      <c r="K293" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="4">
-        <v>13916</v>
-      </c>
-      <c r="B294" s="4">
-        <v>368</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D294" s="5">
-        <v>45709</v>
-      </c>
-      <c r="E294" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F294" s="4">
-        <v>11</v>
-      </c>
-      <c r="G294" s="4">
-        <v>1755</v>
-      </c>
-      <c r="H294" s="6">
-        <v>159220</v>
-      </c>
-      <c r="I294" s="6">
-        <v>0</v>
-      </c>
-      <c r="J294" s="6">
-        <v>159220</v>
-      </c>
-      <c r="K294" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="4">
-        <v>13915</v>
-      </c>
-      <c r="B295" s="4">
-        <v>260</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D295" s="5">
-        <v>45707</v>
-      </c>
-      <c r="E295" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F295" s="4">
-        <v>11</v>
-      </c>
-      <c r="G295" s="4">
-        <v>1754</v>
-      </c>
-      <c r="H295" s="6">
-        <v>389250</v>
-      </c>
-      <c r="I295" s="6">
-        <v>0</v>
-      </c>
-      <c r="J295" s="6">
-        <v>389250</v>
-      </c>
-      <c r="K295" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="4">
-        <v>13914</v>
-      </c>
-      <c r="B296" s="4">
-        <v>368</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D296" s="5">
-        <v>45707</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F296" s="4">
-        <v>11</v>
-      </c>
-      <c r="G296" s="4">
-        <v>1753</v>
-      </c>
-      <c r="H296" s="6">
-        <v>64050</v>
-      </c>
-      <c r="I296" s="6">
-        <v>0</v>
-      </c>
-      <c r="J296" s="6">
-        <v>64050</v>
-      </c>
-      <c r="K296" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="4">
-        <v>13913</v>
-      </c>
-      <c r="B297" s="4">
-        <v>344</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D297" s="5">
-        <v>45706</v>
-      </c>
-      <c r="E297" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F297" s="4">
-        <v>11</v>
-      </c>
-      <c r="G297" s="4">
-        <v>1752</v>
-      </c>
-      <c r="H297" s="6">
-        <v>219137.5</v>
-      </c>
-      <c r="I297" s="6">
-        <v>0</v>
-      </c>
-      <c r="J297" s="6">
-        <v>219137.5</v>
-      </c>
-      <c r="K297" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="4">
-        <v>13911</v>
-      </c>
-      <c r="B298" s="4">
-        <v>315</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D298" s="5">
-        <v>45702</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F298" s="4">
-        <v>11</v>
-      </c>
-      <c r="G298" s="4">
-        <v>1750</v>
-      </c>
-      <c r="H298" s="6">
-        <v>1163800</v>
-      </c>
-      <c r="I298" s="6">
-        <v>0</v>
-      </c>
-      <c r="J298" s="6">
-        <v>1163800</v>
-      </c>
-      <c r="K298" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="4">
-        <v>13910</v>
-      </c>
-      <c r="B299" s="4">
-        <v>101</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D299" s="5">
-        <v>45700</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F299" s="4">
-        <v>11</v>
-      </c>
-      <c r="G299" s="4">
-        <v>1749</v>
-      </c>
-      <c r="H299" s="6">
-        <v>528448</v>
-      </c>
-      <c r="I299" s="6">
-        <v>0</v>
-      </c>
-      <c r="J299" s="6">
-        <v>528448</v>
-      </c>
-      <c r="K299" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="4">
-        <v>13909</v>
-      </c>
-      <c r="B300" s="4">
-        <v>278</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D300" s="5">
-        <v>45700</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F300" s="4">
-        <v>11</v>
-      </c>
-      <c r="G300" s="4">
-        <v>1748</v>
-      </c>
-      <c r="H300" s="6">
-        <v>751410</v>
-      </c>
-      <c r="I300" s="6">
-        <v>0</v>
-      </c>
-      <c r="J300" s="6">
-        <v>751410</v>
-      </c>
-      <c r="K300" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="4">
-        <v>13908</v>
-      </c>
-      <c r="B301" s="4">
-        <v>260</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D301" s="5">
-        <v>45700</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F301" s="4">
-        <v>11</v>
-      </c>
-      <c r="G301" s="4">
-        <v>1747</v>
-      </c>
-      <c r="H301" s="6">
-        <v>222750</v>
-      </c>
-      <c r="I301" s="6">
-        <v>0</v>
-      </c>
-      <c r="J301" s="6">
-        <v>222750</v>
-      </c>
-      <c r="K301" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="4">
-        <v>13907</v>
-      </c>
-      <c r="B302" s="4">
-        <v>37</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D302" s="5">
-        <v>45699</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F302" s="4">
-        <v>11</v>
-      </c>
-      <c r="G302" s="4">
-        <v>1746</v>
-      </c>
-      <c r="H302" s="6">
-        <v>223500</v>
-      </c>
-      <c r="I302" s="6">
-        <v>0</v>
-      </c>
-      <c r="J302" s="6">
-        <v>223500</v>
-      </c>
-      <c r="K302" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="4">
-        <v>13912</v>
-      </c>
-      <c r="B303" s="4">
-        <v>385</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D303" s="5">
-        <v>45698</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F303" s="4">
-        <v>11</v>
-      </c>
-      <c r="G303" s="4">
-        <v>1751</v>
-      </c>
-      <c r="H303" s="6">
-        <v>284900</v>
-      </c>
-      <c r="I303" s="6">
-        <v>0</v>
-      </c>
-      <c r="J303" s="6">
-        <v>284900</v>
-      </c>
-      <c r="K303" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="4">
-        <v>13906</v>
-      </c>
-      <c r="B304" s="4">
-        <v>385</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D304" s="5">
-        <v>45695</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F304" s="4">
-        <v>11</v>
-      </c>
-      <c r="G304" s="4">
-        <v>1745</v>
-      </c>
-      <c r="H304" s="6">
-        <v>2021000</v>
-      </c>
-      <c r="I304" s="6">
-        <v>0</v>
-      </c>
-      <c r="J304" s="6">
-        <v>2021000</v>
-      </c>
-      <c r="K304" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="4">
-        <v>13905</v>
-      </c>
-      <c r="B305" s="4">
-        <v>406</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D305" s="5">
-        <v>45694</v>
-      </c>
-      <c r="E305" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F305" s="4">
-        <v>11</v>
-      </c>
-      <c r="G305" s="4">
-        <v>1744</v>
-      </c>
-      <c r="H305" s="6">
-        <v>26800</v>
-      </c>
-      <c r="I305" s="6">
-        <v>0</v>
-      </c>
-      <c r="J305" s="6">
-        <v>26800</v>
-      </c>
-      <c r="K305" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="4">
-        <v>13904</v>
-      </c>
-      <c r="B306" s="4">
-        <v>317</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D306" s="5">
-        <v>45692</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F306" s="4">
-        <v>11</v>
-      </c>
-      <c r="G306" s="4">
-        <v>1743</v>
-      </c>
-      <c r="H306" s="6">
-        <v>245100</v>
-      </c>
-      <c r="I306" s="6">
-        <v>0</v>
-      </c>
-      <c r="J306" s="6">
-        <v>245100</v>
-      </c>
-      <c r="K306" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="4">
-        <v>13903</v>
-      </c>
-      <c r="B307" s="4">
-        <v>312</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D307" s="5">
-        <v>45692</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F307" s="4">
-        <v>11</v>
-      </c>
-      <c r="G307" s="4">
-        <v>1742</v>
-      </c>
-      <c r="H307" s="6">
-        <v>337500</v>
-      </c>
-      <c r="I307" s="6">
-        <v>0</v>
-      </c>
-      <c r="J307" s="6">
-        <v>337500</v>
-      </c>
-      <c r="K307" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="4">
-        <v>13902</v>
-      </c>
-      <c r="B308" s="4">
-        <v>117</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D308" s="5">
-        <v>45688</v>
-      </c>
-      <c r="E308" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F308" s="4">
-        <v>11</v>
-      </c>
-      <c r="G308" s="4">
-        <v>1741</v>
-      </c>
-      <c r="H308" s="6">
-        <v>590368</v>
-      </c>
-      <c r="I308" s="6">
-        <v>0</v>
-      </c>
-      <c r="J308" s="6">
-        <v>590368</v>
-      </c>
-      <c r="K308" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="4">
-        <v>13901</v>
-      </c>
-      <c r="B309" s="4">
-        <v>117</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D309" s="5">
-        <v>45688</v>
-      </c>
-      <c r="E309" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F309" s="4">
-        <v>11</v>
-      </c>
-      <c r="G309" s="4">
-        <v>1740</v>
-      </c>
-      <c r="H309" s="6">
-        <v>2328456</v>
-      </c>
-      <c r="I309" s="6">
-        <v>0</v>
-      </c>
-      <c r="J309" s="6">
-        <v>2328456</v>
-      </c>
-      <c r="K309" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="4">
-        <v>13900</v>
-      </c>
-      <c r="B310" s="4">
-        <v>101</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D310" s="5">
-        <v>45687</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F310" s="4">
-        <v>11</v>
-      </c>
-      <c r="G310" s="4">
-        <v>1739</v>
-      </c>
-      <c r="H310" s="6">
-        <v>458880</v>
-      </c>
-      <c r="I310" s="6">
-        <v>0</v>
-      </c>
-      <c r="J310" s="6">
-        <v>458880</v>
-      </c>
-      <c r="K310" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="4">
-        <v>13899</v>
-      </c>
-      <c r="B311" s="4">
-        <v>315</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D311" s="5">
-        <v>45687</v>
-      </c>
-      <c r="E311" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F311" s="4">
-        <v>11</v>
-      </c>
-      <c r="G311" s="4">
-        <v>1738</v>
-      </c>
-      <c r="H311" s="6">
-        <v>429750</v>
-      </c>
-      <c r="I311" s="6">
-        <v>0</v>
-      </c>
-      <c r="J311" s="6">
-        <v>429750</v>
-      </c>
-      <c r="K311" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="4">
-        <v>13898</v>
-      </c>
-      <c r="B312" s="4">
-        <v>196</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D312" s="5">
-        <v>45687</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F312" s="4">
-        <v>11</v>
-      </c>
-      <c r="G312" s="4">
-        <v>1737</v>
-      </c>
-      <c r="H312" s="6">
-        <v>1909440</v>
-      </c>
-      <c r="I312" s="6">
-        <v>0</v>
-      </c>
-      <c r="J312" s="6">
-        <v>1909440</v>
-      </c>
-      <c r="K312" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="4">
-        <v>13897</v>
-      </c>
-      <c r="B313" s="4">
-        <v>357</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D313" s="5">
-        <v>45686</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F313" s="4">
-        <v>11</v>
-      </c>
-      <c r="G313" s="4">
-        <v>1736</v>
-      </c>
-      <c r="H313" s="6">
-        <v>374000</v>
-      </c>
-      <c r="I313" s="6">
-        <v>0</v>
-      </c>
-      <c r="J313" s="6">
-        <v>374000</v>
-      </c>
-      <c r="K313" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="4">
-        <v>13896</v>
-      </c>
-      <c r="B314" s="4">
-        <v>368</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D314" s="5">
-        <v>45685</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F314" s="4">
-        <v>11</v>
-      </c>
-      <c r="G314" s="4">
-        <v>1735</v>
-      </c>
-      <c r="H314" s="6">
-        <v>312250</v>
-      </c>
-      <c r="I314" s="6">
-        <v>0</v>
-      </c>
-      <c r="J314" s="6">
-        <v>312250</v>
-      </c>
-      <c r="K314" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="4">
-        <v>13895</v>
-      </c>
-      <c r="B315" s="4">
-        <v>239</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D315" s="5">
-        <v>45684</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F315" s="4">
-        <v>11</v>
-      </c>
-      <c r="G315" s="4">
-        <v>1734</v>
-      </c>
-      <c r="H315" s="6">
-        <v>554400</v>
-      </c>
-      <c r="I315" s="6">
-        <v>0</v>
-      </c>
-      <c r="J315" s="6">
-        <v>554400</v>
-      </c>
-      <c r="K315" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="4">
-        <v>13892</v>
-      </c>
-      <c r="B316" s="4">
-        <v>368</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D316" s="5">
-        <v>45679</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F316" s="4">
-        <v>11</v>
-      </c>
-      <c r="G316" s="4">
-        <v>4</v>
-      </c>
-      <c r="H316" s="6">
-        <v>262176.03</v>
-      </c>
-      <c r="I316" s="6">
-        <v>0</v>
-      </c>
-      <c r="J316" s="6">
-        <v>262176.03</v>
-      </c>
-      <c r="K316" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="4">
-        <v>13891</v>
-      </c>
-      <c r="B317" s="4">
-        <v>368</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D317" s="5">
-        <v>45679</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F317" s="4">
-        <v>11</v>
-      </c>
-      <c r="G317" s="4">
-        <v>38</v>
-      </c>
-      <c r="H317" s="6">
-        <v>-262176.03</v>
-      </c>
-      <c r="I317" s="6">
-        <v>0</v>
-      </c>
-      <c r="J317" s="6">
-        <v>-262176.03</v>
-      </c>
-      <c r="K317" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="4">
-        <v>13893</v>
-      </c>
-      <c r="B318" s="4">
-        <v>368</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D318" s="5">
-        <v>45679</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F318" s="4">
-        <v>11</v>
-      </c>
-      <c r="G318" s="4">
-        <v>1733</v>
-      </c>
-      <c r="H318" s="6">
-        <v>262176.03</v>
-      </c>
-      <c r="I318" s="6">
-        <v>0</v>
-      </c>
-      <c r="J318" s="6">
-        <v>262176.03</v>
-      </c>
-      <c r="K318" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="4">
-        <v>13890</v>
-      </c>
-      <c r="B319" s="4">
-        <v>260</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D319" s="5">
-        <v>45679</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F319" s="4">
-        <v>11</v>
-      </c>
-      <c r="G319" s="4">
-        <v>1732</v>
-      </c>
-      <c r="H319" s="6">
-        <v>597200</v>
-      </c>
-      <c r="I319" s="6">
-        <v>0</v>
-      </c>
-      <c r="J319" s="6">
-        <v>597200</v>
-      </c>
-      <c r="K319" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="4">
-        <v>13889</v>
-      </c>
-      <c r="B320" s="4">
-        <v>383</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D320" s="5">
-        <v>45679</v>
-      </c>
-      <c r="E320" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F320" s="4">
-        <v>11</v>
-      </c>
-      <c r="G320" s="4">
-        <v>1731</v>
-      </c>
-      <c r="H320" s="6">
-        <v>1063200</v>
-      </c>
-      <c r="I320" s="6">
-        <v>0</v>
-      </c>
-      <c r="J320" s="6">
-        <v>1063200</v>
-      </c>
-      <c r="K320" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="4">
-        <v>13888</v>
-      </c>
-      <c r="B321" s="4">
-        <v>398</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D321" s="5">
-        <v>45679</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F321" s="4">
-        <v>11</v>
-      </c>
-      <c r="G321" s="4">
-        <v>1730</v>
-      </c>
-      <c r="H321" s="6">
-        <v>100280</v>
-      </c>
-      <c r="I321" s="6">
-        <v>0</v>
-      </c>
-      <c r="J321" s="6">
-        <v>100280</v>
-      </c>
-      <c r="K321" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="4">
-        <v>13887</v>
-      </c>
-      <c r="B322" s="4">
-        <v>312</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D322" s="5">
-        <v>45678</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F322" s="4">
-        <v>11</v>
-      </c>
-      <c r="G322" s="4">
-        <v>1729</v>
-      </c>
-      <c r="H322" s="6">
-        <v>622500</v>
-      </c>
-      <c r="I322" s="6">
-        <v>0</v>
-      </c>
-      <c r="J322" s="6">
-        <v>622500</v>
-      </c>
-      <c r="K322" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="4">
-        <v>13886</v>
-      </c>
-      <c r="B323" s="4">
-        <v>405</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D323" s="5">
-        <v>45678</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F323" s="4">
-        <v>11</v>
-      </c>
-      <c r="G323" s="4">
-        <v>1728</v>
-      </c>
-      <c r="H323" s="6">
-        <v>1195320</v>
-      </c>
-      <c r="I323" s="6">
-        <v>0</v>
-      </c>
-      <c r="J323" s="6">
-        <v>1195320</v>
-      </c>
-      <c r="K323" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="4">
-        <v>13885</v>
-      </c>
-      <c r="B324" s="4">
-        <v>101</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D324" s="5">
-        <v>45674</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F324" s="4">
-        <v>11</v>
-      </c>
-      <c r="G324" s="4">
-        <v>1727</v>
-      </c>
-      <c r="H324" s="6">
-        <v>1102489</v>
-      </c>
-      <c r="I324" s="6">
-        <v>0</v>
-      </c>
-      <c r="J324" s="6">
-        <v>1102489</v>
-      </c>
-      <c r="K324" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="4">
-        <v>13884</v>
-      </c>
-      <c r="B325" s="4">
-        <v>295</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D325" s="5">
-        <v>45673</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F325" s="4">
-        <v>11</v>
-      </c>
-      <c r="G325" s="4">
-        <v>1726</v>
-      </c>
-      <c r="H325" s="6">
-        <v>693000</v>
-      </c>
-      <c r="I325" s="6">
-        <v>0</v>
-      </c>
-      <c r="J325" s="6">
-        <v>693000</v>
-      </c>
-      <c r="K325" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="4">
-        <v>13883</v>
-      </c>
-      <c r="B326" s="4">
-        <v>315</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D326" s="5">
-        <v>45670</v>
-      </c>
-      <c r="E326" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F326" s="4">
-        <v>11</v>
-      </c>
-      <c r="G326" s="4">
-        <v>1725</v>
-      </c>
-      <c r="H326" s="6">
-        <v>2441700</v>
-      </c>
-      <c r="I326" s="6">
-        <v>0</v>
-      </c>
-      <c r="J326" s="6">
-        <v>2441700</v>
-      </c>
-      <c r="K326" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="4">
-        <v>13882</v>
-      </c>
-      <c r="B327" s="4">
-        <v>357</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D327" s="5">
-        <v>45667</v>
-      </c>
-      <c r="E327" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F327" s="4">
-        <v>11</v>
-      </c>
-      <c r="G327" s="4">
-        <v>1724</v>
-      </c>
-      <c r="H327" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="I327" s="6">
-        <v>0</v>
-      </c>
-      <c r="J327" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="K327" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="4">
-        <v>13881</v>
-      </c>
-      <c r="B328" s="4">
-        <v>107</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D328" s="5">
-        <v>45667</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F328" s="4">
-        <v>11</v>
-      </c>
-      <c r="G328" s="4">
-        <v>1723</v>
-      </c>
-      <c r="H328" s="6">
-        <v>1956210</v>
-      </c>
-      <c r="I328" s="6">
-        <v>0</v>
-      </c>
-      <c r="J328" s="6">
-        <v>1956210</v>
-      </c>
-      <c r="K328" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="4">
-        <v>13880</v>
-      </c>
-      <c r="B329" s="4">
-        <v>406</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D329" s="5">
-        <v>45666</v>
-      </c>
-      <c r="E329" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F329" s="4">
-        <v>11</v>
-      </c>
-      <c r="G329" s="4">
-        <v>1722</v>
-      </c>
-      <c r="H329" s="6">
-        <v>42280</v>
-      </c>
-      <c r="I329" s="6">
-        <v>0</v>
-      </c>
-      <c r="J329" s="6">
-        <v>42280</v>
-      </c>
-      <c r="K329" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="4">
-        <v>13879</v>
-      </c>
-      <c r="B330" s="4">
-        <v>278</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D330" s="5">
-        <v>45663</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F330" s="4">
-        <v>11</v>
-      </c>
-      <c r="G330" s="4">
-        <v>1721</v>
-      </c>
-      <c r="H330" s="6">
-        <v>1092960</v>
-      </c>
-      <c r="I330" s="6">
-        <v>0</v>
-      </c>
-      <c r="J330" s="6">
-        <v>1092960</v>
-      </c>
-      <c r="K330" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="4">
-        <v>13878</v>
-      </c>
-      <c r="B331" s="4">
-        <v>368</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D331" s="5">
-        <v>45660</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F331" s="4">
-        <v>11</v>
-      </c>
-      <c r="G331" s="4">
-        <v>1720</v>
-      </c>
-      <c r="H331" s="6">
-        <v>1029875.6</v>
-      </c>
-      <c r="I331" s="6">
-        <v>0</v>
-      </c>
-      <c r="J331" s="6">
-        <v>1029875.6</v>
-      </c>
-      <c r="K331" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="4">
-        <v>13877</v>
-      </c>
-      <c r="B332" s="4">
-        <v>406</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D332" s="5">
-        <v>45660</v>
-      </c>
-      <c r="E332" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F332" s="4">
-        <v>11</v>
-      </c>
-      <c r="G332" s="4">
-        <v>1719</v>
-      </c>
-      <c r="H332" s="6">
-        <v>59360</v>
-      </c>
-      <c r="I332" s="6">
-        <v>0</v>
-      </c>
-      <c r="J332" s="6">
-        <v>59360</v>
-      </c>
-      <c r="K332" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="4">
-        <v>13876</v>
-      </c>
-      <c r="B333" s="4">
-        <v>99</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D333" s="5">
-        <v>45659</v>
-      </c>
-      <c r="E333" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F333" s="4">
-        <v>11</v>
-      </c>
-      <c r="G333" s="4">
-        <v>1718</v>
-      </c>
-      <c r="H333" s="6">
-        <v>572000</v>
-      </c>
-      <c r="I333" s="6">
-        <v>0</v>
-      </c>
-      <c r="J333" s="6">
-        <v>572000</v>
-      </c>
-      <c r="K333" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D334" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F334" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G334" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H334" s="6">
-        <v>243064546.88</v>
-      </c>
-      <c r="I334" s="6">
-        <v>0</v>
-      </c>
-      <c r="J334" s="6">
-        <v>243064546.88</v>
-      </c>
-      <c r="K334" s="4" t="s">
         <v>20</v>
       </c>
     </row>
